--- a/Examples/Robotics_Lift_2018/BOM.xlsx
+++ b/Examples/Robotics_Lift_2018/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pandaztaco\Desktop\Robotics_Lift_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pandaztaco\Documents\GitHub\CAD2018\Examples\Robotics_Lift_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Part</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Price (Each)</t>
+  </si>
+  <si>
+    <t>10 Series 8020 (46 inches)</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -485,7 +488,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1010</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37.590000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
